--- a/WHO-DATA-SETS/ExcelDataSets/20200123-sitrep-3-2019-ncov.xlsx
+++ b/WHO-DATA-SETS/ExcelDataSets/20200123-sitrep-3-2019-ncov.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gunsl_000\Desktop\COVID-19 By Country\COVID-19-By-Country\WHO-DATA-SETS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gunsl_000\Desktop\COVID-19 By Country\COVID-19-By-Country\WHO-DATA-SETS\ExcelDataSets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35689551-7ECE-4D6C-ADD3-CD2B7D2FE7A2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A25670E-F87C-41AA-B63A-2968E93CE9CD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21720" yWindow="3675" windowWidth="21840" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Table 3" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -453,7 +453,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -463,139 +463,44 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="3" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -606,48 +511,6 @@
     <xf numFmtId="1" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" indent="3" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="3" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="3" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -655,49 +518,19 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="3" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="3" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1036,318 +869,271 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5E1204A-CD96-450E-A36F-C08176BD6C92}">
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="1" width="28" customWidth="1"/>
-    <col min="2" max="2" width="28.6640625" customWidth="1"/>
-    <col min="3" max="3" width="40.1640625" customWidth="1"/>
-    <col min="4" max="4" width="14.83203125" customWidth="1"/>
-    <col min="5" max="5" width="10" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="18.83203125" defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="150" customHeight="1">
-      <c r="A1" s="37"/>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-    </row>
-    <row r="2" spans="1:5" ht="33.6" customHeight="1">
-      <c r="A2" s="1" t="s">
+    <row r="1" spans="1:4" ht="45">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="2" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:5" ht="22.7" customHeight="1">
-      <c r="A3" s="40" t="s">
+    </row>
+    <row r="2" spans="1:4" ht="15">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:5" ht="18.95" customHeight="1">
-      <c r="A4" s="41"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7" t="s">
+    </row>
+    <row r="3" spans="1:4" ht="45">
+      <c r="A3" s="4"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D3" s="9">
         <v>375</v>
       </c>
-      <c r="E4" s="9"/>
-    </row>
-    <row r="5" spans="1:5" ht="19.5" customHeight="1">
-      <c r="A5" s="41"/>
+    </row>
+    <row r="4" spans="1:4" ht="32.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="9">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="60">
+      <c r="A5" s="4"/>
       <c r="B5" s="10"/>
       <c r="C5" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" s="12">
-        <v>131</v>
-      </c>
-      <c r="E5" s="9"/>
-    </row>
-    <row r="6" spans="1:5" ht="19.350000000000001" customHeight="1">
-      <c r="A6" s="41"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="45">
+      <c r="A6" s="4"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="60">
+      <c r="A7" s="4"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="13">
         <v>9</v>
       </c>
-      <c r="D6" s="15">
+    </row>
+    <row r="8" spans="1:4" ht="60">
+      <c r="A8" s="4"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="60">
+      <c r="A9" s="4"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="45">
+      <c r="A10" s="4"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="45">
+      <c r="A11" s="4"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="45">
+      <c r="A12" s="4"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="45">
+      <c r="A13" s="4"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="45">
+      <c r="A14" s="4"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="60">
+      <c r="A15" s="4"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="45">
+      <c r="A16" s="4"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="45">
+      <c r="A17" s="4"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="90">
+      <c r="A18" s="4"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="75">
+      <c r="A19" s="4"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15">
+      <c r="A20" s="4"/>
+      <c r="B20" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="45">
+      <c r="A21" s="4"/>
+      <c r="B21" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="10"/>
+      <c r="D21" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="30">
+      <c r="A22" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="9"/>
-    </row>
-    <row r="7" spans="1:5" ht="19.350000000000001" customHeight="1">
-      <c r="A7" s="41"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="18">
-        <v>10</v>
-      </c>
-      <c r="E7" s="9"/>
-    </row>
-    <row r="8" spans="1:5" ht="19.350000000000001" customHeight="1">
-      <c r="A8" s="41"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="19">
-        <v>9</v>
-      </c>
-      <c r="E8" s="9"/>
-    </row>
-    <row r="9" spans="1:5" ht="19.350000000000001" customHeight="1">
-      <c r="A9" s="41"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="20">
-        <v>5</v>
-      </c>
-      <c r="E9" s="9"/>
-    </row>
-    <row r="10" spans="1:5" ht="19.350000000000001" customHeight="1">
-      <c r="A10" s="41"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="19">
-        <v>5</v>
-      </c>
-      <c r="E10" s="9"/>
-    </row>
-    <row r="11" spans="1:5" ht="19.350000000000001" customHeight="1">
-      <c r="A11" s="41"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="20">
-        <v>2</v>
-      </c>
-      <c r="E11" s="9"/>
-    </row>
-    <row r="12" spans="1:5" ht="19.350000000000001" customHeight="1">
-      <c r="A12" s="41"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="19">
-        <v>2</v>
-      </c>
-      <c r="E12" s="9"/>
-    </row>
-    <row r="13" spans="1:5" ht="19.350000000000001" customHeight="1">
-      <c r="A13" s="41"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="20">
-        <v>2</v>
-      </c>
-      <c r="E13" s="9"/>
-    </row>
-    <row r="14" spans="1:5" ht="19.350000000000001" customHeight="1">
-      <c r="A14" s="41"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="19">
+      <c r="B22" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="75">
+      <c r="A23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="14">
         <v>1</v>
       </c>
-      <c r="E14" s="9"/>
-    </row>
-    <row r="15" spans="1:5" ht="19.350000000000001" customHeight="1">
-      <c r="A15" s="41"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="20">
-        <v>1</v>
-      </c>
-      <c r="E15" s="9"/>
-    </row>
-    <row r="16" spans="1:5" ht="19.350000000000001" customHeight="1">
-      <c r="A16" s="41"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="19">
-        <v>1</v>
-      </c>
-      <c r="E16" s="9"/>
-    </row>
-    <row r="17" spans="1:5" ht="19.350000000000001" customHeight="1">
-      <c r="A17" s="41"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="20">
-        <v>1</v>
-      </c>
-      <c r="E17" s="9"/>
-    </row>
-    <row r="18" spans="1:5" ht="18.95" customHeight="1">
-      <c r="A18" s="41"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="23">
-        <v>1</v>
-      </c>
-      <c r="E18" s="9"/>
-    </row>
-    <row r="19" spans="1:5" ht="34.35" customHeight="1">
-      <c r="A19" s="41"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="26">
-        <v>1</v>
-      </c>
-      <c r="E19" s="3"/>
-    </row>
-    <row r="20" spans="1:5" ht="19.7" customHeight="1">
-      <c r="A20" s="41"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" s="29">
-        <v>1</v>
-      </c>
-      <c r="E20" s="9"/>
-    </row>
-    <row r="21" spans="1:5" ht="19.350000000000001" customHeight="1">
-      <c r="A21" s="41"/>
-      <c r="B21" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="16"/>
-      <c r="D21" s="20">
-        <v>1</v>
-      </c>
-      <c r="E21" s="9"/>
-    </row>
-    <row r="22" spans="1:5" ht="19.350000000000001" customHeight="1">
-      <c r="A22" s="42"/>
-      <c r="B22" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="19">
-        <v>1</v>
-      </c>
-      <c r="E22" s="9"/>
-    </row>
-    <row r="23" spans="1:5" ht="17.850000000000001" customHeight="1">
-      <c r="A23" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="31">
-        <v>4</v>
-      </c>
-      <c r="E23" s="9"/>
-    </row>
-    <row r="24" spans="1:5" ht="18" customHeight="1">
-      <c r="A24" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" s="34"/>
-      <c r="D24" s="35">
-        <v>1</v>
-      </c>
-      <c r="E24" s="9"/>
-    </row>
-    <row r="25" spans="1:5" ht="17.850000000000001" customHeight="1">
-      <c r="A25" s="32" t="s">
+    </row>
+    <row r="24" spans="1:4" ht="30">
+      <c r="A24" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="33" t="s">
+      <c r="B24" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="34"/>
-      <c r="D25" s="36">
+      <c r="C24" s="7"/>
+      <c r="D24" s="9">
         <v>581</v>
       </c>
-      <c r="E25" s="9"/>
-    </row>
-    <row r="26" spans="1:5" ht="146.25" customHeight="1">
-      <c r="A26" s="43"/>
-      <c r="B26" s="43"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="43"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="A3:A22"/>
-    <mergeCell ref="A26:E26"/>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="A2:A21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/WHO-DATA-SETS/ExcelDataSets/20200123-sitrep-3-2019-ncov.xlsx
+++ b/WHO-DATA-SETS/ExcelDataSets/20200123-sitrep-3-2019-ncov.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gunsl_000\Desktop\COVID-19 By Country\COVID-19-By-Country\WHO-DATA-SETS\ExcelDataSets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A25670E-F87C-41AA-B63A-2968E93CE9CD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A9FF9E-3CA1-47FC-B025-710C1EA1D602}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21720" yWindow="3675" windowWidth="21840" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -480,57 +480,48 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="3" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="3" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -873,260 +864,263 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.83203125" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="3" max="3" width="33.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="45">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" ht="29.25" customHeight="1">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="9"/>
+      <c r="D1" s="10" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:4" ht="18" customHeight="1">
+      <c r="A2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="45">
-      <c r="A3" s="4"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="8" t="s">
+    <row r="3" spans="1:4" ht="18" customHeight="1">
+      <c r="A3" s="9"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="12">
         <v>375</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="32.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="8" t="s">
+    <row r="4" spans="1:4" ht="18" customHeight="1">
+      <c r="A4" s="9"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="12">
         <v>131</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="60">
-      <c r="A5" s="4"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="11" t="s">
+    <row r="5" spans="1:4" ht="18" customHeight="1">
+      <c r="A5" s="9"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="7">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="45">
-      <c r="A6" s="4"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="8" t="s">
+    <row r="6" spans="1:4" ht="18" customHeight="1">
+      <c r="A6" s="9"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="12">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="60">
-      <c r="A7" s="4"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="11" t="s">
+    <row r="7" spans="1:4" ht="18" customHeight="1">
+      <c r="A7" s="9"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="7">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="60">
-      <c r="A8" s="4"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="8" t="s">
+    <row r="8" spans="1:4" ht="18" customHeight="1">
+      <c r="A8" s="9"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="12">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="60">
-      <c r="A9" s="4"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="11" t="s">
+    <row r="9" spans="1:4" ht="18" customHeight="1">
+      <c r="A9" s="9"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="7">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="45">
-      <c r="A10" s="4"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="8" t="s">
+    <row r="10" spans="1:4" ht="18" customHeight="1">
+      <c r="A10" s="9"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="12">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="45">
-      <c r="A11" s="4"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="11" t="s">
+    <row r="11" spans="1:4" ht="19.5" customHeight="1">
+      <c r="A11" s="9"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="45">
-      <c r="A12" s="4"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="8" t="s">
+    <row r="12" spans="1:4" ht="19.5" customHeight="1">
+      <c r="A12" s="9"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="12">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="45">
-      <c r="A13" s="4"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="11" t="s">
+    <row r="13" spans="1:4" ht="19.5" customHeight="1">
+      <c r="A13" s="9"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="45">
-      <c r="A14" s="4"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="8" t="s">
+    <row r="14" spans="1:4" ht="19.5" customHeight="1">
+      <c r="A14" s="9"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D14" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="60">
-      <c r="A15" s="4"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="11" t="s">
+    <row r="15" spans="1:4" ht="19.5" customHeight="1">
+      <c r="A15" s="9"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="45">
-      <c r="A16" s="4"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="8" t="s">
+    <row r="16" spans="1:4" ht="19.5" customHeight="1">
+      <c r="A16" s="9"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="45">
-      <c r="A17" s="4"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="11" t="s">
+    <row r="17" spans="1:4" ht="19.5" customHeight="1">
+      <c r="A17" s="9"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="90">
-      <c r="A18" s="4"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="11" t="s">
+    <row r="18" spans="1:4" ht="19.5" customHeight="1">
+      <c r="A18" s="9"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="16">
+      <c r="D18" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="75">
-      <c r="A19" s="4"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="11" t="s">
+    <row r="19" spans="1:4" ht="19.5" customHeight="1">
+      <c r="A19" s="9"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D19" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15">
-      <c r="A20" s="4"/>
-      <c r="B20" s="8" t="s">
+      <c r="A20" s="9"/>
+      <c r="B20" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="14">
+      <c r="C20" s="2"/>
+      <c r="D20" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="45">
-      <c r="A21" s="4"/>
-      <c r="B21" s="11" t="s">
+    <row r="21" spans="1:4" ht="30">
+      <c r="A21" s="9"/>
+      <c r="B21" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="13">
+      <c r="C21" s="4"/>
+      <c r="D21" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="30">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="14">
+      <c r="C22" s="2"/>
+      <c r="D22" s="12">
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="75">
-      <c r="A23" s="1" t="s">
+    <row r="23" spans="1:4" ht="30">
+      <c r="A23" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="14">
+      <c r="C23" s="2"/>
+      <c r="D23" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="30">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="9">
+      <c r="C24" s="2"/>
+      <c r="D24" s="12">
         <v>581</v>
       </c>
     </row>
